--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P11_trail15 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P11_trail15 Features.xlsx
@@ -4328,7 +4328,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z17"/>
+  <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4339,29 +4339,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="19" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4382,115 +4380,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -4507,72 +4495,66 @@
         <v>1.254327634526465e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.2343181661234135</v>
+        <v>3.987453320136442e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-1.295423374572026</v>
+        <v>2.81049067991669e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>3.987453320136442e-07</v>
+        <v>-0.04698847238686916</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>2.81049067991669e-06</v>
+        <v>0.07253407110496141</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.04698847238686916</v>
+        <v>0.007463762694686395</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.07253407110496141</v>
+        <v>1.939681469749937</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.007463762694686395</v>
+        <v>3.740822002507803</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.961911951636785</v>
+        <v>7.064013511035592</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>3.740822002507803</v>
+        <v>8.925831206542085e-18</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>7.064013511035592</v>
+        <v>18630454923.48017</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>8.925831206542085e-18</v>
+        <v>6.488097459807787e-09</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>18630454923.48017</v>
+        <v>3098.101123782633</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>6.488097459807787e-09</v>
+        <v>6.158186572700344e-05</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>3098.101123782633</v>
+        <v>8.201534717314431</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>6.158186572700344e-05</v>
+        <v>1.363554638196915</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>8.201534717314431</v>
+        <v>0.004142314772922618</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.363554638196915</v>
+        <v>5.939206566906698</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.004142314772922618</v>
+        <v>0.9640594871891053</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>5.939206566906698</v>
+        <v>0.8353336184816749</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9640594871891053</v>
+        <v>264</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>0.8353336184816749</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>264</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>8.50540572842992</v>
       </c>
     </row>
@@ -4587,72 +4569,66 @@
         <v>1.256627512348349e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.2855674265977457</v>
+        <v>4.001810269901963e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-1.248578220516577</v>
+        <v>2.804854180237991e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>4.001810269901963e-07</v>
+        <v>-0.04312088837527278</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>2.804854180237991e-06</v>
+        <v>0.06796856442420623</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.04312088837527278</v>
+        <v>0.006477245848121228</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.06796856442420623</v>
+        <v>1.940892996683518</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.006477245848121228</v>
+        <v>3.298750343403077</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.964732172247342</v>
+        <v>6.714339141712428</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>3.298750343403077</v>
+        <v>1.455168456494087e-17</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>6.714339141712428</v>
+        <v>11486117031.51507</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>1.455168456494087e-17</v>
+        <v>1.052384873224831e-08</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>11486117031.51507</v>
+        <v>1919.816615059744</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>1.052384873224831e-08</v>
+        <v>9.032143562887854e-05</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>1919.816615059744</v>
+        <v>8.650388069247432</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>9.032143562887854e-05</v>
+        <v>1.32230654668387</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>8.650388069247432</v>
+        <v>0.00675868201275181</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.32230654668387</v>
+        <v>5.177738774422415</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.00675868201275181</v>
+        <v>0.963763653863178</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>5.177738774422415</v>
+        <v>0.8647690386937908</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.963763653863178</v>
+        <v>256</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>0.8647690386937908</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>256</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>6.096483909003521</v>
       </c>
     </row>
@@ -4667,72 +4643,66 @@
         <v>1.261483870826777e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.3403885662866296</v>
+        <v>4.0041964762907e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-1.199219290044887</v>
+        <v>2.799585809729624e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>4.0041964762907e-07</v>
+        <v>-0.04083644274635152</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>2.799585809729624e-06</v>
+        <v>0.06689251001843902</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.04083644274635152</v>
+        <v>0.006142077463669948</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.06689251001843902</v>
+        <v>1.950198320136321</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.006142077463669948</v>
+        <v>2.85866865963155</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.96749788858766</v>
+        <v>6.455594165067314</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>2.85866865963155</v>
+        <v>2.494034353140359e-17</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>6.455594165067314</v>
+        <v>6773410339.614618</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>2.494034353140359e-17</v>
+        <v>1.790424297635695e-08</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>6773410339.614618</v>
+        <v>1144.240206369596</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>1.790424297635695e-08</v>
+        <v>0.0001216100305530258</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>1144.240206369596</v>
+        <v>10.50560086036315</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001216100305530258</v>
+        <v>1.261423096885588</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>10.50560086036315</v>
+        <v>0.01342181322013118</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.261423096885588</v>
+        <v>4.623727011921125</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.01342181322013118</v>
+        <v>0.963253685475824</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>4.623727011921125</v>
+        <v>0.8655437961545679</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.963253685475824</v>
+        <v>254</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>0.8655437961545679</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>254</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>4.743725103714832</v>
       </c>
     </row>
@@ -4747,72 +4717,66 @@
         <v>1.265844223054399e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.3976281836021801</v>
+        <v>4.0041964762907e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-1.14455568746599</v>
+        <v>2.794487743885657e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>4.0041964762907e-07</v>
+        <v>-0.0400910484125267</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>2.794487743885657e-06</v>
+        <v>0.06687420560385059</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.0400910484125267</v>
+        <v>0.00607956776319098</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.06687420560385059</v>
+        <v>1.946565926356773</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.00607956776319098</v>
+        <v>2.862256804357882</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.964544096083018</v>
+        <v>5.18445611375699</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>2.862256804357882</v>
+        <v>4.133974593167986e-17</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>5.18445611375699</v>
+        <v>4091693496.881116</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>4.133974593167986e-17</v>
+        <v>2.960161345840539e-08</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>4091693496.881116</v>
+        <v>692.1081938972568</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>2.960161345840539e-08</v>
+        <v>0.000140748260485187</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>692.1081938972568</v>
+        <v>12.43953885415078</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.000140748260485187</v>
+        <v>1.10939915459885</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>12.43953885415078</v>
+        <v>0.02177968518550577</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.10939915459885</v>
+        <v>4.327580486129595</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.02177968518550577</v>
+        <v>0.9624601337462315</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>4.327580486129595</v>
+        <v>0.8875972359331464</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9624601337462315</v>
+        <v>252</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>0.8875972359331464</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>252</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>4.374057272208176</v>
       </c>
     </row>
@@ -4827,72 +4791,66 @@
         <v>1.26681087928427e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.4584145477775958</v>
+        <v>4.0041964762907e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-1.076664396911206</v>
+        <v>2.789369033108857e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>4.0041964762907e-07</v>
+        <v>-0.04099643840797452</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>2.789369033108857e-06</v>
+        <v>0.06533004821828056</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.04099643840797452</v>
+        <v>0.005947644987529106</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.06533004821828056</v>
+        <v>1.936647525505737</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.005947644987529106</v>
+        <v>2.660882373514855</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.95221447958045</v>
+        <v>4.74529754609459</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>2.660882373514855</v>
+        <v>4.934547224315242e-17</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4.74529754609459</v>
+        <v>3360906923.082942</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>4.934547224315242e-17</v>
+        <v>3.597257721263232e-08</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>3360906923.082942</v>
+        <v>557.3914211447355</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>3.597257721263232e-08</v>
+        <v>0.0001478463820098757</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>557.3914211447355</v>
+        <v>13.82960870447206</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001478463820098757</v>
+        <v>0.9686101160869225</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>13.82960870447206</v>
+        <v>0.0282768147026125</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>0.9686101160869225</v>
+        <v>4.07488396621441</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.0282768147026125</v>
+        <v>0.9612388232044594</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>4.07488396621441</v>
+        <v>1.012590573972454</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9612388232044594</v>
+        <v>257</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.012590573972454</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>257</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>4.28822636799225</v>
       </c>
     </row>
@@ -4907,72 +4865,66 @@
         <v>1.261266784225428e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.5222582347646743</v>
+        <v>4.0041964762907e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-0.98798751165568</v>
+        <v>2.784029293215357e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>4.0041964762907e-07</v>
+        <v>-0.04368435621210704</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>2.784029293215357e-06</v>
+        <v>0.05989925466862141</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.04368435621210704</v>
+        <v>0.005493889812655417</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.05989925466862141</v>
+        <v>1.929001211425332</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.005493889812655417</v>
+        <v>2.307240256633709</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.935166891874126</v>
+        <v>5.707174138545998</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>2.307240256633709</v>
+        <v>1.030814599107848e-16</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>5.707174138545998</v>
+        <v>1578469661.470665</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>1.030814599107848e-16</v>
+        <v>7.597877869854078e-08</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>1578469661.470665</v>
+        <v>256.8343094174198</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>7.597877869854078e-08</v>
+        <v>0.0001993863887204741</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>256.8343094174198</v>
+        <v>10.11762359920249</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001993863887204741</v>
+        <v>1.560078670109781</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>10.11762359920249</v>
+        <v>0.02041044833822813</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.560078670109781</v>
+        <v>3.60431026382276</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.02041044833822813</v>
+        <v>0.9611232071429657</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>3.60431026382276</v>
+        <v>1.321717319858247</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9611232071429657</v>
+        <v>247</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.321717319858247</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>247</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>2.307236863588557</v>
       </c>
     </row>
@@ -4987,72 +4939,66 @@
         <v>1.246827654283835e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.5839445951186489</v>
+        <v>4.0041964762907e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-0.8817459466018844</v>
+        <v>2.778312016662921e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>4.0041964762907e-07</v>
+        <v>-0.04752408481490953</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>2.778312016662921e-06</v>
+        <v>0.05186747579060597</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.04752408481490953</v>
+        <v>0.004946624102073928</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.05186747579060597</v>
+        <v>1.927068597778009</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.004946624102073928</v>
+        <v>2.320742948719347</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.933683860977864</v>
+        <v>4.498277351429278</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>2.320742948719347</v>
+        <v>1.77463259502876e-16</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>4.498277351429278</v>
+        <v>919165033.285372</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>1.77463259502876e-16</v>
+        <v>1.303044371555779e-07</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>919165033.285372</v>
+        <v>149.9323828820431</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>1.303044371555779e-07</v>
+        <v>0.0002148337401001126</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>149.9323828820431</v>
+        <v>9.130244726664097</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0002148337401001126</v>
+        <v>1.813897063331828</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>9.130244726664097</v>
+        <v>0.0179088346324612</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.813897063331828</v>
+        <v>3.144787693764274</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.0179088346324612</v>
+        <v>0.9618083884133077</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>3.144787693764274</v>
+        <v>1.288917611237809</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9618083884133077</v>
+        <v>203</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.288917611237809</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>203</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.8956499039317704</v>
       </c>
     </row>
@@ -5067,72 +5013,66 @@
         <v>1.222545677474803e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.6351023637352491</v>
+        <v>4.0041964762907e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-0.7776098960637463</v>
+        <v>2.772178609084904e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>4.0041964762907e-07</v>
+        <v>-0.05174534408692447</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>2.772178609084904e-06</v>
+        <v>0.04413670946604719</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.05174534408692447</v>
+        <v>0.004624521429373322</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.04413670946604719</v>
+        <v>1.922907248918501</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.004624521429373322</v>
+        <v>2.282639502910136</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.92737925720399</v>
+        <v>4.16668725057288</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>2.282639502910136</v>
+        <v>2.068326542283854e-16</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>4.16668725057288</v>
+        <v>785055179.3793786</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>2.068326542283854e-16</v>
+        <v>1.526996438663955e-07</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>785055179.3793786</v>
+        <v>127.4733712307114</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>1.526996438663955e-07</v>
+        <v>0.0001648608644974124</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>127.4733712307114</v>
+        <v>9.552799272078841</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001648608644974124</v>
+        <v>1.336514781845571</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>9.552799272078841</v>
+        <v>0.01504453875308672</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.336514781845571</v>
+        <v>3.04286116730664</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.01504453875308672</v>
+        <v>0.9619490806778542</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>3.04286116730664</v>
+        <v>1.327156235217273</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9619490806778542</v>
+        <v>147</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.327156235217273</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>147</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.5296052464480829</v>
       </c>
     </row>
@@ -5147,72 +5087,66 @@
         <v>1.189027143256988e-07</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.667831630167284</v>
+        <v>4.0041964762907e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-0.7053491874710147</v>
+        <v>2.765699721694992e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>4.0041964762907e-07</v>
+        <v>-0.05550787778725352</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>2.765699721694992e-06</v>
+        <v>0.04031238955526641</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.05550787778725352</v>
+        <v>0.004706327750756929</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.04031238955526641</v>
+        <v>1.918286308656547</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.004706327750756929</v>
+        <v>2.270349475523171</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.923975832232466</v>
+        <v>4.100127391611124</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>2.270349475523171</v>
+        <v>2.136024411132913e-16</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>4.100127391611124</v>
+        <v>757395573.6851064</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>2.136024411132913e-16</v>
+        <v>1.584700205411205e-07</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>757395573.6851064</v>
+        <v>122.5326248959639</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>1.584700205411205e-07</v>
+        <v>0.0001545092329696571</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>122.5326248959639</v>
+        <v>10.33124816823233</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0001545092329696571</v>
+        <v>1.127513506510759</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>10.33124816823233</v>
+        <v>0.01649149488439404</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.127513506510759</v>
+        <v>2.82342760182043</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.01649149488439404</v>
+        <v>0.9651063746402009</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>2.82342760182043</v>
+        <v>1.344087625440907</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9651063746402009</v>
+        <v>131</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.344087625440907</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>131</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.4183946248008036</v>
       </c>
     </row>
@@ -5227,72 +5161,66 @@
         <v>1.149056607360999e-07</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.6799859610991958</v>
+        <v>4.00957793051476e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-0.684895163622619</v>
+        <v>2.759041114955056e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>4.00957793051476e-07</v>
+        <v>-0.05815570938359445</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>2.759041114955056e-06</v>
+        <v>0.04081435522831835</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.05815570938359445</v>
+        <v>0.005048082334474896</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.04081435522831835</v>
+        <v>1.914283992641776</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.005048082334474896</v>
+        <v>2.241910528272267</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.923252881742191</v>
+        <v>4.102097534431202</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>2.241910528272267</v>
+        <v>2.133973137337724e-16</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>4.102097534431202</v>
+        <v>744310452.4849375</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>2.133973137337724e-16</v>
+        <v>1.605665917791847e-07</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>744310452.4849375</v>
+        <v>118.2216956151051</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>1.605665917791847e-07</v>
+        <v>0.0001555922108019187</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>118.2216956151051</v>
+        <v>10.30373548950846</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001555922108019187</v>
+        <v>1.140122931919075</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>10.30373548950846</v>
+        <v>0.01651875280435448</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.140122931919075</v>
+        <v>2.71857760776785</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.01651875280435448</v>
+        <v>0.9659683962354341</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>2.71857760776785</v>
+        <v>1.329660540569956</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9659683962354341</v>
+        <v>123</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.329660540569956</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>123</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.3777691039470567</v>
       </c>
     </row>
@@ -5307,72 +5235,66 @@
         <v>1.106620294840552e-07</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.6770076768758924</v>
+        <v>3.953478121294674e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-0.7101376545652589</v>
+        <v>2.752393345083949e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>3.953478121294674e-07</v>
+        <v>-0.05954603632476396</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>2.752393345083949e-06</v>
+        <v>0.04214762605446633</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.05954603632476396</v>
+        <v>0.005321449957285704</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.04214762605446633</v>
+        <v>1.915533705329302</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.005321449957285704</v>
+        <v>2.306253799315937</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.923398053265997</v>
+        <v>4.102092430732982</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>2.306253799315937</v>
+        <v>2.133978447389539e-16</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>4.102092430732982</v>
+        <v>744237860.4574977</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>2.133978447389539e-16</v>
+        <v>1.607775061074747e-07</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>744237860.4574977</v>
+        <v>118.1989307155191</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>1.607775061074747e-07</v>
+        <v>0.0001542690647917581</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>118.1989307155191</v>
+        <v>9.125468658933785</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001542690647917581</v>
+        <v>1.231210736430411</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>9.125468658933785</v>
+        <v>0.01284662959918651</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.231210736430411</v>
+        <v>2.902009070371557</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.01284662959918651</v>
+        <v>0.9653363806454444</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>2.902009070371557</v>
+        <v>1.348091537522083</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9653363806454444</v>
+        <v>116</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.348091537522083</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>116</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.3564234140737801</v>
       </c>
     </row>
@@ -5387,72 +5309,66 @@
         <v>1.065045951688087e-07</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.6673726619575493</v>
+        <v>3.832955511047058e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-0.7585302859095524</v>
+        <v>2.745898449629093e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>3.832955511047058e-07</v>
+        <v>-0.05998688689634404</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>2.745898449629093e-06</v>
+        <v>0.04216388548058798</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.05998688689634404</v>
+        <v>0.00537470046659802</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.04216388548058798</v>
+        <v>1.915456478198696</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.00537470046659802</v>
+        <v>2.311642142191696</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.921749867036036</v>
+        <v>4.08916054414992</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>2.311642142191696</v>
+        <v>2.147497116283759e-16</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>4.08916054414992</v>
+        <v>736185796.4948864</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>2.147497116283759e-16</v>
+        <v>1.623427008971485e-07</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>736185796.4948864</v>
+        <v>116.3877996262013</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>1.623427008971485e-07</v>
+        <v>0.0001751877277798347</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>116.3877996262013</v>
+        <v>8.425541180885247</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001751877277798347</v>
+        <v>1.599583157508032</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>8.425541180885247</v>
+        <v>0.01243653198045678</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.599583157508032</v>
+        <v>2.956637517220301</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.01243653198045678</v>
+        <v>0.9654345842030444</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>2.956637517220301</v>
+        <v>1.362216295827676</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9654345842030444</v>
+        <v>94</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.362216295827676</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>94</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.339367541526425</v>
       </c>
     </row>
@@ -5467,72 +5383,66 @@
         <v>1.026144780155502e-07</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.6578797072199567</v>
+        <v>3.683875455644278e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-0.8089231408539233</v>
+        <v>2.739632377463435e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>3.683875455644278e-07</v>
+        <v>-0.05984000847169116</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>2.739632377463435e-06</v>
+        <v>0.0409697420222668</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.05984000847169116</v>
+        <v>0.005257521215869283</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.0409697420222668</v>
+        <v>1.915136250762826</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.005257521215869283</v>
+        <v>2.347764845502808</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.921034741135481</v>
+        <v>4.05690666899623</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>2.347764845502808</v>
+        <v>2.181779613204566e-16</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>4.05690666899623</v>
+        <v>715066659.1825424</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>2.181779613204566e-16</v>
+        <v>1.675264250975742e-07</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>715066659.1825424</v>
+        <v>111.5588265428196</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>1.675264250975742e-07</v>
+        <v>0.0001752465081093327</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>111.5588265428196</v>
+        <v>9.304340730988729</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0001752465081093327</v>
+        <v>1.402781807615001</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>9.304340730988729</v>
+        <v>0.01517122277020189</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.402781807615001</v>
+        <v>2.909964787341608</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.01517122277020189</v>
+        <v>0.9644187912281146</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>2.909964787341608</v>
+        <v>1.347443809734603</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9644187912281146</v>
+        <v>63</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.347443809734603</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>63</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.3397303751974268</v>
       </c>
     </row>
@@ -5547,72 +5457,66 @@
         <v>9.904238651512747e-08</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.6522905165918313</v>
+        <v>3.528128228255301e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-0.8490840161927049</v>
+        <v>2.733622287522664e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>3.528128228255301e-07</v>
+        <v>-0.05937655877710961</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>2.733622287522664e-06</v>
+        <v>0.03933292113197324</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.05937655877710961</v>
+        <v>0.005070889458663974</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.03933292113197324</v>
+        <v>1.917007401092718</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.005070889458663974</v>
+        <v>2.220643844383112</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.921138515365925</v>
+        <v>4.014732356358746</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>2.220643844383112</v>
+        <v>2.227859078143405e-16</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>4.014732356358746</v>
+        <v>696939165.7024266</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>2.227859078143405e-16</v>
+        <v>1.721414518923321e-07</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>696939165.7024266</v>
+        <v>108.2125069981153</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>1.721414518923321e-07</v>
+        <v>0.0001614611559453924</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>108.2125069981153</v>
+        <v>10.66385200516693</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001614611559453924</v>
+        <v>1.111362212959639</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>10.66385200516693</v>
+        <v>0.01836099768539219</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.111362212959639</v>
+        <v>2.753205151399659</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.01836099768539219</v>
+        <v>0.9627506559136986</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>2.753205151399659</v>
+        <v>1.349295044103822</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9627506559136986</v>
+        <v>50</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.349295044103822</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.3437554115940416</v>
       </c>
     </row>
@@ -5627,72 +5531,66 @@
         <v>9.576647087219449e-08</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.6522343266119345</v>
+        <v>3.374527444893308e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-0.8739161731954614</v>
+        <v>2.727870638320931e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>3.374527444893308e-07</v>
+        <v>-0.05873324642210462</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>2.727870638320931e-06</v>
+        <v>0.03781047926283946</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.05873324642210462</v>
+        <v>0.004877666512966883</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.03781047926283946</v>
+        <v>1.913440973339235</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.004877666512966883</v>
+        <v>2.213451277442834</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.919187876459785</v>
+        <v>3.980457400574146</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>2.213451277442834</v>
+        <v>2.266391600091685e-16</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>3.980457400574146</v>
+        <v>674320658.6463575</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>2.266391600091685e-16</v>
+        <v>1.776596279876913e-07</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>674320658.6463575</v>
+        <v>103.0547186466481</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>1.776596279876913e-07</v>
+        <v>0.0001584551666675114</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>103.0547186466481</v>
+        <v>10.56387885123458</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0001584551666675114</v>
+        <v>1.105796617335359</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>10.56387885123458</v>
+        <v>0.01768288931700752</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.105796617335359</v>
+        <v>2.68894042101233</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.01768288931700752</v>
+        <v>0.9616806476762849</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>2.68894042101233</v>
+        <v>1.365676033991613</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9616806476762849</v>
+        <v>50</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.365676033991613</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.3330448900974539</v>
       </c>
     </row>
@@ -5707,72 +5605,66 @@
         <v>9.273613268635238e-08</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.6583389948390191</v>
+        <v>3.225426545017969e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-0.8818615346052123</v>
+        <v>2.722371262384622e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>3.225426545017969e-07</v>
+        <v>-0.05797116850625652</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>2.722371262384622e-06</v>
+        <v>0.03675276838789629</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.05797116850625652</v>
+        <v>0.004710127622542596</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.03675276838789629</v>
+        <v>1.912316776819505</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.004710127622542596</v>
+        <v>2.168442736277561</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.914548820562925</v>
+        <v>3.934585084155255</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>2.168442736277561</v>
+        <v>2.31954621682494e-16</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>3.934585084155255</v>
+        <v>643026058.554908</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>2.31954621682494e-16</v>
+        <v>1.853917459782805e-07</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>643026058.554908</v>
+        <v>95.90917963880128</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>1.853917459782805e-07</v>
+        <v>0.0001552544119577173</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>95.90917963880128</v>
+        <v>9.475198837994112</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0001552544119577173</v>
+        <v>1.188270864815463</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>9.475198837994112</v>
+        <v>0.01393864686916714</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.188270864815463</v>
+        <v>2.855877214523669</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.01393864686916714</v>
+        <v>0.961577909829332</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>2.855877214523669</v>
+        <v>1.360644014168768</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.961577909829332</v>
+        <v>50</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.360644014168768</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.334089124293996</v>
       </c>
     </row>
@@ -6149,7 +6041,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.398882331620596</v>
+        <v>1.39033400501629</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.236952858627977</v>
@@ -6238,7 +6130,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.413142858289504</v>
+        <v>1.404222192909612</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.177119521684529</v>
@@ -6327,7 +6219,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.427017263469249</v>
+        <v>1.418004438700705</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.281575751266913</v>
@@ -6416,7 +6308,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.473113064132749</v>
+        <v>1.464933761914103</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.274444362641083</v>
@@ -6505,7 +6397,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.482802018231531</v>
+        <v>1.470751801033117</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.198092551379885</v>
@@ -6594,7 +6486,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.509446748621006</v>
+        <v>1.496329579862568</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.243918531782977</v>
@@ -6683,7 +6575,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.476849444178147</v>
+        <v>1.470477453212678</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.084077079675393</v>
@@ -6772,7 +6664,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.491793810865478</v>
+        <v>1.481925964541891</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.473448461090786</v>
@@ -6861,7 +6753,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.476923865465903</v>
+        <v>1.467280964255048</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.427031974586612</v>
@@ -6950,7 +6842,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.470219910786566</v>
+        <v>1.462077444340893</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.319027250760269</v>
@@ -7039,7 +6931,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.465754009031273</v>
+        <v>1.459276125143992</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.352721891776676</v>
@@ -7128,7 +7020,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.466503129185882</v>
+        <v>1.462968512089676</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.314932153274398</v>
@@ -7217,7 +7109,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.466093786854103</v>
+        <v>1.462279098819855</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.381875644910198</v>
@@ -7306,7 +7198,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.468132705200793</v>
+        <v>1.463689136504431</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.308392776250453</v>
@@ -7395,7 +7287,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.488580567424713</v>
+        <v>1.473518838932415</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.433356653532522</v>
@@ -7484,7 +7376,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.476608591736762</v>
+        <v>1.466979670754</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.268185089416658</v>
@@ -7573,7 +7465,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.470501338710057</v>
+        <v>1.459270301551546</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.334228112783883</v>
@@ -7662,7 +7554,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.464312140029604</v>
+        <v>1.446144271492315</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.320210681705241</v>
@@ -7751,7 +7643,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.423384808124006</v>
+        <v>1.408097511121592</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.295299170635778</v>
@@ -7840,7 +7732,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.428726966603448</v>
+        <v>1.4214840931262</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.280408973266839</v>
@@ -7929,7 +7821,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.434813561996641</v>
+        <v>1.423896145701646</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.35540888200428</v>
@@ -8018,7 +7910,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.471148208041021</v>
+        <v>1.452856144970658</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.163243233131814</v>
@@ -8107,7 +7999,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.489330009100729</v>
+        <v>1.476025949720633</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.232420300625769</v>
@@ -8196,7 +8088,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.501108464975872</v>
+        <v>1.489538434422367</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.205220906401589</v>
@@ -8285,7 +8177,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.498541871870834</v>
+        <v>1.486537531278124</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.237062182281675</v>
@@ -8374,7 +8266,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.493973637047155</v>
+        <v>1.483032253023719</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.200808456193124</v>
@@ -8463,7 +8355,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.493311660722741</v>
+        <v>1.482008634743527</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.222965796727168</v>
@@ -8552,7 +8444,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.48550270612392</v>
+        <v>1.473994161703037</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.30926120964395</v>
@@ -8641,7 +8533,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.481934354722488</v>
+        <v>1.467617144501761</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.333534976821919</v>
@@ -8730,7 +8622,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.480753539476915</v>
+        <v>1.4742400061989</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.154468284291152</v>
@@ -8819,7 +8711,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.477268989355816</v>
+        <v>1.473219135155966</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.211681673236632</v>
@@ -8908,7 +8800,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.493775702123624</v>
+        <v>1.487334324612805</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.245841312174031</v>
@@ -8997,7 +8889,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.487546945428338</v>
+        <v>1.482633062419852</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.223228423363259</v>
@@ -9086,7 +8978,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.540881469045758</v>
+        <v>1.527945340907962</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.261444911944979</v>
@@ -9175,7 +9067,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.541686233703743</v>
+        <v>1.527035502041945</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.587226626069349</v>
@@ -9264,7 +9156,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.523810417791239</v>
+        <v>1.509494710208743</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.720404801053366</v>
@@ -9353,7 +9245,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.515861430350945</v>
+        <v>1.504556046330549</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.651683847143049</v>
@@ -9442,7 +9334,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.459101353799802</v>
+        <v>1.455052355564804</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.170571183492713</v>
@@ -9531,7 +9423,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.431377799817818</v>
+        <v>1.42911974501717</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.233263670376811</v>
@@ -9620,7 +9512,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.425276858017392</v>
+        <v>1.424659125460395</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.164464847766028</v>
@@ -9709,7 +9601,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.425937909064518</v>
+        <v>1.42426898304903</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.207729432171585</v>
@@ -9798,7 +9690,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.410547906955775</v>
+        <v>1.414506065206311</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.299959413377683</v>
@@ -9887,7 +9779,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.416223155665502</v>
+        <v>1.420572616732868</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.27429482521614</v>
@@ -9976,7 +9868,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.400152723024832</v>
+        <v>1.406817573895096</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.300520899401358</v>
@@ -10065,7 +9957,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.397489326796778</v>
+        <v>1.399926969170965</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.270767509780268</v>
@@ -10154,7 +10046,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.383871033117892</v>
+        <v>1.388404463353812</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.322594100169151</v>
@@ -10243,7 +10135,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.378709179269796</v>
+        <v>1.383305130306637</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.22195419379319</v>
@@ -10332,7 +10224,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.390625897466823</v>
+        <v>1.398497697402705</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.292405460029481</v>
@@ -10421,7 +10313,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.388498839914262</v>
+        <v>1.397087825663371</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.267072863125648</v>
@@ -10510,7 +10402,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.386302871862268</v>
+        <v>1.392626986658183</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.175152913740142</v>
@@ -10599,7 +10491,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.387516019764309</v>
+        <v>1.397838152651981</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.249007102616277</v>
@@ -10688,7 +10580,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.388778550859581</v>
+        <v>1.399615137841991</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.114185445631789</v>
@@ -10777,7 +10669,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.43536495153081</v>
+        <v>1.441763864173355</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.27197569319167</v>
@@ -10866,7 +10758,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.452353259729547</v>
+        <v>1.456209270921677</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.223364504632532</v>
@@ -10955,7 +10847,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.452226623199211</v>
+        <v>1.458758491809822</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.375253656626887</v>
@@ -11044,7 +10936,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.478356370304748</v>
+        <v>1.476068993040021</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.637977367880166</v>
@@ -11133,7 +11025,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.483349635998409</v>
+        <v>1.479601683687538</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.588963245722689</v>
@@ -11222,7 +11114,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.482039746632908</v>
+        <v>1.47467144654897</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.534031512160652</v>
@@ -11311,7 +11203,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.504334220388695</v>
+        <v>1.491547912164815</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.572934008949515</v>
@@ -11400,7 +11292,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.523577284986324</v>
+        <v>1.509923265123998</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.425703741166303</v>
@@ -11489,7 +11381,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.553546841032019</v>
+        <v>1.537658800955368</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.701242861288563</v>
@@ -11775,7 +11667,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.593189937510695</v>
+        <v>1.583135306047503</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.828684038294944</v>
@@ -11864,7 +11756,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.598283617592315</v>
+        <v>1.585426726968497</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.632190229353322</v>
@@ -11953,7 +11845,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.603655209373803</v>
+        <v>1.590380880731224</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.927588764055415</v>
@@ -12042,7 +11934,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.608002255904624</v>
+        <v>1.592374052320188</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.699437225822426</v>
@@ -12131,7 +12023,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.61801894526313</v>
+        <v>1.589274831428467</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.944824772480612</v>
@@ -12220,7 +12112,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.618230050467856</v>
+        <v>1.590641314829245</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.724107279670065</v>
@@ -12309,7 +12201,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.612799501026672</v>
+        <v>1.586248804901193</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.952379667483569</v>
@@ -12398,7 +12290,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.631940700140584</v>
+        <v>1.60400054726024</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.270838276594381</v>
@@ -12487,7 +12379,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.638171029569535</v>
+        <v>1.612317626157858</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.158697889962407</v>
@@ -12576,7 +12468,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.622590326679586</v>
+        <v>1.599670443361307</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.270736559255978</v>
@@ -12665,7 +12557,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.613204475440899</v>
+        <v>1.592697887281597</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.280994341621028</v>
@@ -12754,7 +12646,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.615225073114707</v>
+        <v>1.599003953838087</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.978818825010607</v>
@@ -12843,7 +12735,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.613721109285697</v>
+        <v>1.591906305305758</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.890686369908032</v>
@@ -12932,7 +12824,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.616449288512262</v>
+        <v>1.587656084071449</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.101696979917341</v>
@@ -13021,7 +12913,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.624654253088669</v>
+        <v>1.594429980748189</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.063434612231036</v>
@@ -13110,7 +13002,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.625969310860893</v>
+        <v>1.595647828841378</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.005179493347558</v>
@@ -13199,7 +13091,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.615874989582595</v>
+        <v>1.588624445401777</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.016196214827488</v>
@@ -13288,7 +13180,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.610477703276753</v>
+        <v>1.578328769981252</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.773407446482073</v>
@@ -13377,7 +13269,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.617899863202608</v>
+        <v>1.581208479869938</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.094939351818029</v>
@@ -13466,7 +13358,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.611037639962707</v>
+        <v>1.584666324364991</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.785446868941257</v>
@@ -13555,7 +13447,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.619457474625869</v>
+        <v>1.59068227853456</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.915563708259141</v>
@@ -13644,7 +13536,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.613783830907084</v>
+        <v>1.58602240537123</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.858840116365188</v>
@@ -13733,7 +13625,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.611286512908669</v>
+        <v>1.587413768424357</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.813566207330555</v>
@@ -13822,7 +13714,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.587344560733798</v>
+        <v>1.569457198227045</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.031920037137334</v>
@@ -13911,7 +13803,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.591605205524543</v>
+        <v>1.5711396335668</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.807609822919876</v>
@@ -14000,7 +13892,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.602068351903713</v>
+        <v>1.573446563839559</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.595556448220492</v>
@@ -14089,7 +13981,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.588661025853244</v>
+        <v>1.561623982915319</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.009313059926018</v>
@@ -14178,7 +14070,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.584539954730604</v>
+        <v>1.557610967828786</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.605036644631554</v>
@@ -14267,7 +14159,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.580368152149979</v>
+        <v>1.558990332663749</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.785576883414375</v>
@@ -14356,7 +14248,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.590683362317725</v>
+        <v>1.56733207276488</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.946483549577625</v>
@@ -14445,7 +14337,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.582463875880224</v>
+        <v>1.558362896062897</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.606050280955243</v>
@@ -14534,7 +14426,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.585708705866193</v>
+        <v>1.561642393595032</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.290567683843418</v>
@@ -14623,7 +14515,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.591222096205096</v>
+        <v>1.56871140294428</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.23788680579887</v>
@@ -14712,7 +14604,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.599935660834007</v>
+        <v>1.576709616582787</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.550581268403978</v>
@@ -14801,7 +14693,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.599092003473429</v>
+        <v>1.575796017098877</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.373953504826165</v>
@@ -14890,7 +14782,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.608745352502079</v>
+        <v>1.586967746749136</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.586430966959497</v>
@@ -14979,7 +14871,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.611246297838723</v>
+        <v>1.588527780315664</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.104377570626581</v>
@@ -15068,7 +14960,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.630414069999335</v>
+        <v>1.604512691250433</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.841045640733278</v>
@@ -15157,7 +15049,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.632927389763518</v>
+        <v>1.600914702565662</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.462405152844477</v>
@@ -15246,7 +15138,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.628720832350252</v>
+        <v>1.6001653014948</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.531157855876605</v>
@@ -15335,7 +15227,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.631350126129889</v>
+        <v>1.607541354331725</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.173157595535001</v>
@@ -15424,7 +15316,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.624061468898926</v>
+        <v>1.601665454173643</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.336894463340392</v>
@@ -15513,7 +15405,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.625109273326661</v>
+        <v>1.606441538832465</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.11832947001404</v>
@@ -15602,7 +15494,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.632284465283374</v>
+        <v>1.609328024489439</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.906658387985596</v>
@@ -15691,7 +15583,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.631859065719032</v>
+        <v>1.604835767283368</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.089416244742903</v>
@@ -15780,7 +15672,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.647060190689668</v>
+        <v>1.609081386817688</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.848766448049276</v>
@@ -15869,7 +15761,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.640741926059261</v>
+        <v>1.60434041555147</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.255547738949294</v>
@@ -15958,7 +15850,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.633935002233762</v>
+        <v>1.598603985176061</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.119981788654859</v>
@@ -16047,7 +15939,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.62580381415562</v>
+        <v>1.594190477647192</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.767997371824843</v>
@@ -16136,7 +16028,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.629089874602917</v>
+        <v>1.594032014849162</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.060569751379441</v>
@@ -16225,7 +16117,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.60900156508406</v>
+        <v>1.580495827116404</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.027907741674383</v>
@@ -16314,7 +16206,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.619359051250615</v>
+        <v>1.59248786700319</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.887168991801989</v>
@@ -16403,7 +16295,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.608134441531765</v>
+        <v>1.578892149769517</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.102533640783398</v>
@@ -16492,7 +16384,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.606149515417967</v>
+        <v>1.576297977136567</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.833565183349525</v>
@@ -16581,7 +16473,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.600196706035153</v>
+        <v>1.567795040752621</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.031855902048461</v>
@@ -16670,7 +16562,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.614235363270793</v>
+        <v>1.577648745044722</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.550989609747461</v>
@@ -16759,7 +16651,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.620039268277437</v>
+        <v>1.584795451639241</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.348170625475493</v>
@@ -16848,7 +16740,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.617908877534671</v>
+        <v>1.577283006683329</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.234017283588865</v>
@@ -16937,7 +16829,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.608721771179942</v>
+        <v>1.571345857233371</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.041277909487032</v>
@@ -17026,7 +16918,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.606472187288886</v>
+        <v>1.576238530031854</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.444092370736787</v>
@@ -17115,7 +17007,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.612048867329245</v>
+        <v>1.587295268563724</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.94150139260265</v>
@@ -17401,7 +17293,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.509634348497207</v>
+        <v>1.489744572848374</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.730354779610594</v>
@@ -17490,7 +17382,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.506631423381785</v>
+        <v>1.483633094749452</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.609715534916594</v>
@@ -17579,7 +17471,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.505699447122111</v>
+        <v>1.485306277876978</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.821521825325337</v>
@@ -17668,7 +17560,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.516962045852244</v>
+        <v>1.498913859262067</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.788436962319194</v>
@@ -17757,7 +17649,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.521369571693409</v>
+        <v>1.495392733469341</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.680745501581009</v>
@@ -17846,7 +17738,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.544598545404333</v>
+        <v>1.509673506951869</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.526629459535304</v>
@@ -17935,7 +17827,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.542213657604891</v>
+        <v>1.507884405639982</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.926393981099728</v>
@@ -18024,7 +17916,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.558899326233485</v>
+        <v>1.520659024516333</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.197720407705139</v>
@@ -18113,7 +18005,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.544433019880041</v>
+        <v>1.508274344604743</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.264838475646748</v>
@@ -18202,7 +18094,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.545565234149783</v>
+        <v>1.505079675519155</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.089390020839961</v>
@@ -18291,7 +18183,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.553531056203816</v>
+        <v>1.51321913611691</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.178003439543444</v>
@@ -18380,7 +18272,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.546539630704036</v>
+        <v>1.510183826540992</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.078165995832796</v>
@@ -18469,7 +18361,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.553692413093791</v>
+        <v>1.516433423013521</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.133234821709815</v>
@@ -18558,7 +18450,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.552195800479409</v>
+        <v>1.513085554327388</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.017817957184813</v>
@@ -18647,7 +18539,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.524273806336584</v>
+        <v>1.489170665722515</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.58615198265078</v>
@@ -18736,7 +18628,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.531070489639095</v>
+        <v>1.49898562201098</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.462187958330265</v>
@@ -18825,7 +18717,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.536176118527101</v>
+        <v>1.50482665033868</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.394009697956527</v>
@@ -18914,7 +18806,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.542576767630196</v>
+        <v>1.507718835899672</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.51739058324268</v>
@@ -19003,7 +18895,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.531546875505516</v>
+        <v>1.499897933941134</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.597873597974507</v>
@@ -19092,7 +18984,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.530070738518297</v>
+        <v>1.500335663241942</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.561534719778864</v>
@@ -19181,7 +19073,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.518801667512916</v>
+        <v>1.494151369656795</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.503611038997466</v>
@@ -19270,7 +19162,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.522539007789879</v>
+        <v>1.492218263973791</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.593198768194187</v>
@@ -19359,7 +19251,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.519736777729275</v>
+        <v>1.495876198769746</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.556460390723157</v>
@@ -19448,7 +19340,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.530725933650088</v>
+        <v>1.508046786240555</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.515886728108263</v>
@@ -19537,7 +19429,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.525445958180755</v>
+        <v>1.501311395491577</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.429341118629446</v>
@@ -19626,7 +19518,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.52112007321171</v>
+        <v>1.49637266713596</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.591412819906878</v>
@@ -19715,7 +19607,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.533548465150205</v>
+        <v>1.509725147422333</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.497946425946601</v>
@@ -19804,7 +19696,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.533267655817645</v>
+        <v>1.509147134972885</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.583204252715741</v>
@@ -19893,7 +19785,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.534813567287576</v>
+        <v>1.510229126303267</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.437960987507942</v>
@@ -19982,7 +19874,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.568442963520306</v>
+        <v>1.539754314532579</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.072887784037081</v>
@@ -20071,7 +19963,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.561296837808787</v>
+        <v>1.534821966401024</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.896219352343613</v>
@@ -20160,7 +20052,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.528284922590993</v>
+        <v>1.504527677695075</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.254325350770851</v>
@@ -20249,7 +20141,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.524141250217897</v>
+        <v>1.498589043744129</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.31416585278634</v>
@@ -20338,7 +20230,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.527489322928918</v>
+        <v>1.496451007458839</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.316189225161847</v>
@@ -20427,7 +20319,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.53084300653693</v>
+        <v>1.49765301995458</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.255760207311402</v>
@@ -20516,7 +20408,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.542775705274044</v>
+        <v>1.503744973094375</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.464917074289938</v>
@@ -20605,7 +20497,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.542397146991665</v>
+        <v>1.506240707601164</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.373711766200886</v>
@@ -20694,7 +20586,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.528058330476502</v>
+        <v>1.491064942958148</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.269292113759684</v>
@@ -20783,7 +20675,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.523615042509904</v>
+        <v>1.486559314838558</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.450295218792551</v>
@@ -20872,7 +20764,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.521275384430009</v>
+        <v>1.488837340647509</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.3432417777445</v>
@@ -20961,7 +20853,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.529760334777551</v>
+        <v>1.4962532924154</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.295965970775016</v>
@@ -21050,7 +20942,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.528930035605194</v>
+        <v>1.498809483617424</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.393661487771022</v>
@@ -21139,7 +21031,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.525310914940811</v>
+        <v>1.501973875555194</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.355328595511201</v>
@@ -21228,7 +21120,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.522134305914703</v>
+        <v>1.496893749318184</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.396357819454598</v>
@@ -21317,7 +21209,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.517449643586702</v>
+        <v>1.485603472810064</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.280525949607976</v>
@@ -21406,7 +21298,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.510738452191297</v>
+        <v>1.479899413615984</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.446230552288838</v>
@@ -21495,7 +21387,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.540047576284434</v>
+        <v>1.50495987575279</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.914271278917285</v>
@@ -21584,7 +21476,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.536830200785166</v>
+        <v>1.503597081533045</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.954084508635908</v>
@@ -21673,7 +21565,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.500787924799138</v>
+        <v>1.480354865719063</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.346083701869292</v>
@@ -21762,7 +21654,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.490389391905831</v>
+        <v>1.475813716761191</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.152058287335548</v>
@@ -21851,7 +21743,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.482487196146508</v>
+        <v>1.470945012859385</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.262722553716011</v>
@@ -21940,7 +21832,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.485183078078348</v>
+        <v>1.476920256906238</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.195303736307683</v>
@@ -22029,7 +21921,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.493443642882089</v>
+        <v>1.484561090722443</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.245470733333678</v>
@@ -22118,7 +22010,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.497662519651778</v>
+        <v>1.484305638383784</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.169696363992927</v>
@@ -22207,7 +22099,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.499095863489551</v>
+        <v>1.48632265137506</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.213787866936541</v>
@@ -22296,7 +22188,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.50457772288118</v>
+        <v>1.481288093805868</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.269810491025842</v>
@@ -22385,7 +22277,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.497306414970233</v>
+        <v>1.47297087506901</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.283470023957753</v>
@@ -22474,7 +22366,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.49544134286668</v>
+        <v>1.465964897418242</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.229927298914095</v>
@@ -22563,7 +22455,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.478582228625362</v>
+        <v>1.456745987158455</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.226198872723731</v>
@@ -22652,7 +22544,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.487092758098086</v>
+        <v>1.470847263007641</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.216092114329824</v>
@@ -22741,7 +22633,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.489188887402501</v>
+        <v>1.472045060382603</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.32128655516352</v>
@@ -23027,7 +22919,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.434840257821062</v>
+        <v>1.426667655879619</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.185426644783908</v>
@@ -23116,7 +23008,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.434655815669555</v>
+        <v>1.422366688979446</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.156589560776308</v>
@@ -23205,7 +23097,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.498055779156073</v>
+        <v>1.481080095831542</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.182327720509349</v>
@@ -23294,7 +23186,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.507625358018843</v>
+        <v>1.489245040501487</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.127953225542602</v>
@@ -23383,7 +23275,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.452888803538781</v>
+        <v>1.428766820111243</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.155318982307515</v>
@@ -23472,7 +23364,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.44030368874594</v>
+        <v>1.42826111049116</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.126806812869805</v>
@@ -23561,7 +23453,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.432169140343225</v>
+        <v>1.422929297701623</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.167152507836298</v>
@@ -23650,7 +23542,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.44191448291976</v>
+        <v>1.432099517160788</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.159806949203437</v>
@@ -23739,7 +23631,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.439444483826783</v>
+        <v>1.427864683728286</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.144642923203059</v>
@@ -23828,7 +23720,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.437507996728224</v>
+        <v>1.425141484720486</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.122497465687862</v>
@@ -23917,7 +23809,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.444858901977774</v>
+        <v>1.432930186417386</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.100371541043895</v>
@@ -24006,7 +23898,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.460174422735545</v>
+        <v>1.44706657403309</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.030203621738013</v>
@@ -24095,7 +23987,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.470877664447626</v>
+        <v>1.457462033239182</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.14678735616851</v>
@@ -24184,7 +24076,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.473660555701895</v>
+        <v>1.460452988624998</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.171128100461034</v>
@@ -24273,7 +24165,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.470636160914686</v>
+        <v>1.455000412865631</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.188556219722504</v>
@@ -24362,7 +24254,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.468696208579761</v>
+        <v>1.44951866622369</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.209154450190147</v>
@@ -24451,7 +24343,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.465154171840351</v>
+        <v>1.444413442384612</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.129145650153284</v>
@@ -24540,7 +24432,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.467403417035811</v>
+        <v>1.447956442275206</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.246853785406381</v>
@@ -24629,7 +24521,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.469356654974533</v>
+        <v>1.448155810255031</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.113021610065403</v>
@@ -24718,7 +24610,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.51100402600234</v>
+        <v>1.485075422507605</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.12067512055438</v>
@@ -24807,7 +24699,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.495757873782178</v>
+        <v>1.471078674164621</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.33438722582564</v>
@@ -24896,7 +24788,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.508889216632579</v>
+        <v>1.483505727718806</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.320503217592041</v>
@@ -24985,7 +24877,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.488736560276078</v>
+        <v>1.466431907304976</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.33097742614726</v>
@@ -25074,7 +24966,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.48884940494622</v>
+        <v>1.470621133735298</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.301541926231543</v>
@@ -25163,7 +25055,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.491154841070627</v>
+        <v>1.473443685179678</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.262701109508952</v>
@@ -25252,7 +25144,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.489997212736644</v>
+        <v>1.472815810787664</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.204740458821461</v>
@@ -25341,7 +25233,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.531698540760524</v>
+        <v>1.50875816713722</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.240135868760338</v>
@@ -25430,7 +25322,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.531601222861471</v>
+        <v>1.507136067195951</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.272036482062712</v>
@@ -25519,7 +25411,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.527439440948081</v>
+        <v>1.504219496644278</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.352169641482496</v>
@@ -25608,7 +25500,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.538585407339884</v>
+        <v>1.515178615220679</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.295752562653275</v>
@@ -25697,7 +25589,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.532831505114193</v>
+        <v>1.510979036190996</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.269509188227496</v>
@@ -25786,7 +25678,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.537218529214451</v>
+        <v>1.518804605552191</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.255091279316718</v>
@@ -25875,7 +25767,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.541641538565451</v>
+        <v>1.518773618003909</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.355550114081336</v>
@@ -25964,7 +25856,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.541504456351604</v>
+        <v>1.521069209256958</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.30001525523179</v>
@@ -26053,7 +25945,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.545649424982866</v>
+        <v>1.525686165665379</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.415466782842088</v>
@@ -26142,7 +26034,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.580082438115409</v>
+        <v>1.555422531282505</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.75418545885834</v>
@@ -26231,7 +26123,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.588232172926042</v>
+        <v>1.558147764393756</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.575035661971008</v>
@@ -26320,7 +26212,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.589490557441039</v>
+        <v>1.558898795020356</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.00573691188607</v>
@@ -26409,7 +26301,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.579884088479129</v>
+        <v>1.548243581711763</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.948807641750771</v>
@@ -26498,7 +26390,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.566867758091911</v>
+        <v>1.536861002585303</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.759019645054453</v>
@@ -26587,7 +26479,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.563919926205942</v>
+        <v>1.532410487844192</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.682625703110649</v>
@@ -26676,7 +26568,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.552624824330763</v>
+        <v>1.525887826581912</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.946461462644182</v>
@@ -26765,7 +26657,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.505756970084031</v>
+        <v>1.488530251293381</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.241516294156767</v>
@@ -26854,7 +26746,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.503497858807079</v>
+        <v>1.485340784869456</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.255255458011614</v>
@@ -26943,7 +26835,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.515015058121838</v>
+        <v>1.485243718746417</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.187332063155409</v>
@@ -27032,7 +26924,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.507381959448697</v>
+        <v>1.47730361096297</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.32578457455863</v>
@@ -27121,7 +27013,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.512227805133318</v>
+        <v>1.48153524458847</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.272802159898333</v>
@@ -27210,7 +27102,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.508559725478172</v>
+        <v>1.479527114164903</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.340002661036638</v>
@@ -27299,7 +27191,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.491403938738306</v>
+        <v>1.467313962049995</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.31929215894156</v>
@@ -27388,7 +27280,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.470576618444229</v>
+        <v>1.43655806195984</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.31676219347541</v>
@@ -27477,7 +27369,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.426360885351811</v>
+        <v>1.411278631599777</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.302666492839911</v>
@@ -27566,7 +27458,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.417620526716331</v>
+        <v>1.404644334870123</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.307032581503138</v>
@@ -27655,7 +27547,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.427186881331541</v>
+        <v>1.413519195030893</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.236796221478257</v>
@@ -27744,7 +27636,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.427411570213837</v>
+        <v>1.41150117731993</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.259291317410012</v>
@@ -27833,7 +27725,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.432625749874558</v>
+        <v>1.415554173530134</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.316734901645283</v>
@@ -27922,7 +27814,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.434924996037128</v>
+        <v>1.412377493150025</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.240388037064561</v>
@@ -28011,7 +27903,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.439081987784689</v>
+        <v>1.415013166415522</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.228193119367389</v>
@@ -28100,7 +27992,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.472177824411622</v>
+        <v>1.4414679624364</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.276938758964172</v>
@@ -28189,7 +28081,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.43939067671466</v>
+        <v>1.412998483266904</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.330435388245217</v>
@@ -28278,7 +28170,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.436463056731266</v>
+        <v>1.418526969572427</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.215034991631248</v>
@@ -28367,7 +28259,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.438396665668653</v>
+        <v>1.420551497072157</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.323552533197263</v>
@@ -28653,7 +28545,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.537208699536773</v>
+        <v>1.522963454466389</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.654053947314361</v>
@@ -28742,7 +28634,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.542605508830844</v>
+        <v>1.521639174052407</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.668352046803637</v>
@@ -28831,7 +28723,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.541553193485864</v>
+        <v>1.522056000595524</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.499805403241017</v>
@@ -28920,7 +28812,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.555074098024423</v>
+        <v>1.533545552213103</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.7450319702453</v>
@@ -29009,7 +28901,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.558353215194097</v>
+        <v>1.536018060120859</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.635887250968319</v>
@@ -29098,7 +28990,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.561798709244388</v>
+        <v>1.534926901501148</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.505034162753024</v>
@@ -29187,7 +29079,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.539800156878785</v>
+        <v>1.519790797902736</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.558610678967478</v>
@@ -29276,7 +29168,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.547910066014437</v>
+        <v>1.527239757415897</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.667847330653403</v>
@@ -29365,7 +29257,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.544503918959047</v>
+        <v>1.523251414258092</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.591493765928088</v>
@@ -29454,7 +29346,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.536074670526006</v>
+        <v>1.515887417634971</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.669426404298064</v>
@@ -29543,7 +29435,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.536174802807651</v>
+        <v>1.515669773217454</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.733169093705845</v>
@@ -29632,7 +29524,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.543644565414021</v>
+        <v>1.525739794569913</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.970035212292512</v>
@@ -29721,7 +29613,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.55392049245118</v>
+        <v>1.537711906712973</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.960664755055899</v>
@@ -29810,7 +29702,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.562574679034067</v>
+        <v>1.544484265586861</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.158494933184782</v>
@@ -29899,7 +29791,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.564349548639401</v>
+        <v>1.541848602704302</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.105503833810714</v>
@@ -29988,7 +29880,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.559320358124772</v>
+        <v>1.539095046791175</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.126129328621988</v>
@@ -30077,7 +29969,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.551663985115684</v>
+        <v>1.544025272589794</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.876502410827257</v>
@@ -30166,7 +30058,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.557416326775949</v>
+        <v>1.539889253873281</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.689322261603122</v>
@@ -30255,7 +30147,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.54979947968168</v>
+        <v>1.531033926644926</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.774188740942743</v>
@@ -30344,7 +30236,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.567907298783848</v>
+        <v>1.5444936818783</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.520579696115622</v>
@@ -30433,7 +30325,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.579504558429508</v>
+        <v>1.55489855411635</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.804153533654303</v>
@@ -30522,7 +30414,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.580740743077338</v>
+        <v>1.552706936162837</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.498811516012605</v>
@@ -30611,7 +30503,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.585583824217404</v>
+        <v>1.554923047938246</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.671778804554838</v>
@@ -30700,7 +30592,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.577183277804322</v>
+        <v>1.546550430737935</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.657500649009423</v>
@@ -30789,7 +30681,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.580658954299441</v>
+        <v>1.548280877272275</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.678587046241983</v>
@@ -30878,7 +30770,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.564495922237724</v>
+        <v>1.534150611065811</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.457276567814088</v>
@@ -30967,7 +30859,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.566447225120507</v>
+        <v>1.531794643827421</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.547377946070065</v>
@@ -31056,7 +30948,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.551991022893338</v>
+        <v>1.518634280058291</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.510129772446574</v>
@@ -31145,7 +31037,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.546277604831455</v>
+        <v>1.51543465321629</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.573337595296866</v>
@@ -31234,7 +31126,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.545890118186284</v>
+        <v>1.512540662583071</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.54215204779825</v>
@@ -31323,7 +31215,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.544432036596836</v>
+        <v>1.504137264029554</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.407993868331618</v>
@@ -31412,7 +31304,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.56073995420295</v>
+        <v>1.516242866560934</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.031169561172421</v>
@@ -31501,7 +31393,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.557907834323902</v>
+        <v>1.515723619227719</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.492198123639695</v>
@@ -31590,7 +31482,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.553210144544534</v>
+        <v>1.511478320756776</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.454963311731645</v>
@@ -31679,7 +31571,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.534975208753225</v>
+        <v>1.493045633899849</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.392860056041734</v>
@@ -31768,7 +31660,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.534106325603375</v>
+        <v>1.486921167660237</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.015392901460714</v>
@@ -31857,7 +31749,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.545556201741606</v>
+        <v>1.496328258755982</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.295053338503181</v>
@@ -31946,7 +31838,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.551836232854485</v>
+        <v>1.507627415099758</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.805909181597472</v>
@@ -32035,7 +31927,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.549552580552521</v>
+        <v>1.504351730304903</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.23645555717788</v>
@@ -32124,7 +32016,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.55161191324337</v>
+        <v>1.508752727095793</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.260664463486546</v>
@@ -32213,7 +32105,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.561061502115303</v>
+        <v>1.516015541068127</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.346878428233766</v>
@@ -32302,7 +32194,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.560645734709058</v>
+        <v>1.523288761848087</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.337825045591361</v>
@@ -32391,7 +32283,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.5747276955893</v>
+        <v>1.538186007959471</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.223617465644805</v>
@@ -32480,7 +32372,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.565356946461163</v>
+        <v>1.532587727548203</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.248184545290933</v>
@@ -32569,7 +32461,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.57631190838849</v>
+        <v>1.547552827397693</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.180702539315633</v>
@@ -32658,7 +32550,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.586158136145081</v>
+        <v>1.554772205226344</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.2268289850632</v>
@@ -32747,7 +32639,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.580272212648574</v>
+        <v>1.546269269157094</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.895361739944364</v>
@@ -32836,7 +32728,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.583880360638953</v>
+        <v>1.551797891663279</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.08472585139307</v>
@@ -32925,7 +32817,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.589248039014897</v>
+        <v>1.559496866772202</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.265595882113244</v>
@@ -33014,7 +32906,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.596949002457804</v>
+        <v>1.569176338522067</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.001844840391137</v>
@@ -33103,7 +32995,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.59820401247022</v>
+        <v>1.574974070322382</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.072848447251873</v>
@@ -33192,7 +33084,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.59990822867</v>
+        <v>1.578267998407378</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.047592498451228</v>
@@ -33281,7 +33173,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.589552162538016</v>
+        <v>1.565934558623189</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.768228244265921</v>
@@ -33370,7 +33262,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.58627424112983</v>
+        <v>1.566189937306532</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.02585793039137</v>
@@ -33459,7 +33351,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.583316387285435</v>
+        <v>1.557395222521354</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.957259965865065</v>
@@ -33548,7 +33440,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.588128810643027</v>
+        <v>1.561499111819839</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.980445330363671</v>
@@ -33637,7 +33529,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.587305425097019</v>
+        <v>1.560484555327283</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.140902393699046</v>
@@ -33726,7 +33618,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.582208007577458</v>
+        <v>1.551856767084713</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.122312399284683</v>
@@ -33815,7 +33707,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.59655134054322</v>
+        <v>1.563147413382964</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.981249469545463</v>
@@ -33904,7 +33796,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.600992938257101</v>
+        <v>1.566092014349015</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.863264250225118</v>
@@ -33993,7 +33885,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.599357440869898</v>
+        <v>1.566803863069747</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.067263385172981</v>
@@ -34279,7 +34171,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.322390407469476</v>
+        <v>1.314362075806922</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.051553608581592</v>
@@ -34368,7 +34260,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.340879635559897</v>
+        <v>1.325961990203725</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.953374907610337</v>
@@ -34457,7 +34349,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.352818365154202</v>
+        <v>1.337603865928833</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.96996542755011</v>
@@ -34546,7 +34438,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.402577830346037</v>
+        <v>1.386339518595533</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.963146130623466</v>
@@ -34635,7 +34527,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.38017027455626</v>
+        <v>1.363753936325746</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.02361897339337</v>
@@ -34724,7 +34616,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.397230351620928</v>
+        <v>1.379235151918059</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.000159271005638</v>
@@ -34813,7 +34705,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.351546391318619</v>
+        <v>1.341824034549117</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.009875174153507</v>
@@ -34902,7 +34794,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.369084790484159</v>
+        <v>1.358937917133</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.244287389871546</v>
@@ -34991,7 +34883,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.35909752676836</v>
+        <v>1.348887508499132</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.287441182057221</v>
@@ -35080,7 +34972,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.356271303394874</v>
+        <v>1.345310806946814</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.25086291397643</v>
@@ -35169,7 +35061,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.353075065459208</v>
+        <v>1.339544939106766</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.315680756848634</v>
@@ -35258,7 +35150,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.351178113457662</v>
+        <v>1.339533689023294</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.205796798000812</v>
@@ -35347,7 +35239,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.353831206643977</v>
+        <v>1.341928428488054</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.248692420396226</v>
@@ -35436,7 +35328,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.367789375688138</v>
+        <v>1.352737065510017</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.270036071104787</v>
@@ -35525,7 +35417,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.395139789004739</v>
+        <v>1.371917868636011</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.345510267653876</v>
@@ -35614,7 +35506,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.38789696895327</v>
+        <v>1.3646811897462</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.250602390747998</v>
@@ -35703,7 +35595,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.371785589276959</v>
+        <v>1.35325829189589</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.226373078892069</v>
@@ -35792,7 +35684,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.363652121085614</v>
+        <v>1.343507751562944</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.206685711267518</v>
@@ -35881,7 +35773,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.333417965184521</v>
+        <v>1.314710460853683</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.284148337348486</v>
@@ -35970,7 +35862,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.335034851314449</v>
+        <v>1.324598690725714</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.216759558368399</v>
@@ -36059,7 +35951,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.352142484765654</v>
+        <v>1.337638834238002</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.132301373405014</v>
@@ -36148,7 +36040,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.384702383770745</v>
+        <v>1.364325352902767</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.081050437659611</v>
@@ -36237,7 +36129,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.412403463021991</v>
+        <v>1.390197655324529</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.140908191859382</v>
@@ -36326,7 +36218,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.429657166328145</v>
+        <v>1.407602525808235</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.162632222209708</v>
@@ -36415,7 +36307,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.426529880874565</v>
+        <v>1.404382266917925</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.154915589089526</v>
@@ -36504,7 +36396,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.416283077792998</v>
+        <v>1.392936934296151</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.114375627802774</v>
@@ -36593,7 +36485,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.417605526953998</v>
+        <v>1.394018750637964</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.165882692298442</v>
@@ -36682,7 +36574,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.397358507709062</v>
+        <v>1.375316522713051</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.163463982585513</v>
@@ -36771,7 +36663,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.391591104573659</v>
+        <v>1.371745216531842</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.124982230546668</v>
@@ -36860,7 +36752,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.385796949280616</v>
+        <v>1.369125685458579</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.147097870393008</v>
@@ -36949,7 +36841,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.387578084071542</v>
+        <v>1.372421777569627</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.121096784161552</v>
@@ -37038,7 +36930,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.415863821524054</v>
+        <v>1.402559007419882</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.17849562397405</v>
@@ -37127,7 +37019,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.407996722762054</v>
+        <v>1.393686680095134</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.171855545548473</v>
@@ -37216,7 +37108,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.451035277359439</v>
+        <v>1.430875407338586</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.032773646296473</v>
@@ -37305,7 +37197,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.453232417496954</v>
+        <v>1.428584179387961</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.296627736993357</v>
@@ -37394,7 +37286,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.430230552127897</v>
+        <v>1.408608534347968</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.27775886621193</v>
@@ -37483,7 +37375,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.4258259189265</v>
+        <v>1.406851632470187</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.225395541878506</v>
@@ -37572,7 +37464,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.382302787905974</v>
+        <v>1.370364506674668</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.297338973649794</v>
@@ -37661,7 +37553,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.362287560588509</v>
+        <v>1.351119243855715</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.260320833515051</v>
@@ -37750,7 +37642,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.362564302545385</v>
+        <v>1.352469028602866</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.218724768910373</v>
@@ -37839,7 +37731,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.365558571903785</v>
+        <v>1.352710066032027</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.198452744146679</v>
@@ -37928,7 +37820,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.344740858080094</v>
+        <v>1.33731500972771</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.313261834465905</v>
@@ -38017,7 +37909,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.35836062515779</v>
+        <v>1.349250704795323</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.313916388402185</v>
@@ -38106,7 +37998,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.338831422252125</v>
+        <v>1.329527384862446</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.34146613817121</v>
@@ -38195,7 +38087,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.345114822060884</v>
+        <v>1.332905917708217</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.284529382247107</v>
@@ -38284,7 +38176,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.327323674594701</v>
+        <v>1.31455378349421</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.336945504761692</v>
@@ -38373,7 +38265,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.317488117356155</v>
+        <v>1.302772645208571</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.350055839597886</v>
@@ -38462,7 +38354,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.340661552054964</v>
+        <v>1.327882130729221</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.335651456840622</v>
@@ -38551,7 +38443,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.335908843956514</v>
+        <v>1.324750363602477</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.312200238090131</v>
@@ -38640,7 +38532,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.341288980667251</v>
+        <v>1.329809796756812</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.237113171203724</v>
@@ -38729,7 +38621,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.338721558328166</v>
+        <v>1.326806457100083</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.260817128687715</v>
@@ -38818,7 +38710,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.326659948834747</v>
+        <v>1.315513458987396</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.194491391674473</v>
@@ -38907,7 +38799,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.360633464293092</v>
+        <v>1.346510491545212</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.15275116367584</v>
@@ -38996,7 +38888,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.382553277373131</v>
+        <v>1.365421670218722</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.159383961014561</v>
@@ -39085,7 +38977,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.385542936127463</v>
+        <v>1.366826597704343</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.21788205909846</v>
@@ -39174,7 +39066,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.40220373730929</v>
+        <v>1.380984388182104</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.329159158118358</v>
@@ -39263,7 +39155,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.4016678456559</v>
+        <v>1.381554517795864</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.369800982826773</v>
@@ -39352,7 +39244,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.401249835825339</v>
+        <v>1.37867796995358</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.249325648916818</v>
@@ -39441,7 +39333,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.429556908464821</v>
+        <v>1.401725827609369</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.321402000607079</v>
@@ -39530,7 +39422,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.445754858898019</v>
+        <v>1.418761149076167</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.36361611618561</v>
@@ -39619,7 +39511,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.475812115646239</v>
+        <v>1.442373251179921</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.288853224307028</v>
